--- a/src/main/resources/excel/test.xlsx
+++ b/src/main/resources/excel/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E9C4048C-DD8C-4262-BC94-13A0113F1637}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="敏特" sheetId="4" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="54">
   <si>
     <t>提货日期</t>
   </si>
@@ -167,17 +168,85 @@
   <si>
     <t>货物名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.trackingNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.deliveryAddr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> t.arrivalAddr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.goodsName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.deliveryDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.arrivalDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.loadingModel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.palteNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.trainNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.shippedQuantity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.pickUpCharge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.deliveryFee</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.totalExpenses</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.comment}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:billMap t.serialNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,14 +338,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -295,16 +358,28 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_费用汇总" xfId="1"/>
+    <cellStyle name="常规_费用汇总" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -353,7 +428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,9 +461,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,6 +513,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,14 +705,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.125" style="7" customWidth="1"/>
+    <col min="2" max="17" width="12.625" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="20.25">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
@@ -618,98 +900,227 @@
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:17" ht="20.25">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="20.25">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="M3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -723,15 +1134,143 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="20.25">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
@@ -746,98 +1285,98 @@
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="20.25">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -851,271 +1390,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
@@ -1130,98 +1413,98 @@
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="20.25">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1235,15 +1518,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
@@ -1258,98 +1541,98 @@
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="20.25">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1363,15 +1646,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
@@ -1386,98 +1669,98 @@
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="20.25">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1491,15 +1774,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
@@ -1514,98 +1797,98 @@
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="20.25">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1619,15 +1902,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
@@ -1642,226 +1925,98 @@
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="20.25">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
